--- a/JupyterNotebooks/AveragedIntensities-Exp/UniformA-HW50.xlsx
+++ b/JupyterNotebooks/AveragedIntensities-Exp/UniformA-HW50.xlsx
@@ -14,12 +14,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="68">
   <si>
     <t>HKL</t>
   </si>
   <si>
     <t>Equal Angle</t>
+  </si>
+  <si>
+    <t>Bruker</t>
   </si>
   <si>
     <t>ND Single</t>
@@ -572,7 +575,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:V48"/>
+  <dimension ref="A1:V49"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -651,64 +654,64 @@
         <v>0</v>
       </c>
       <c r="C2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="E2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="G2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="H2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="I2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="J2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="L2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="M2" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="N2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="O2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="P2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="Q2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="R2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="S2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="T2" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="U2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="V2" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
     <row r="3" spans="1:22">
@@ -2283,64 +2286,64 @@
         <v>24</v>
       </c>
       <c r="C26">
-        <v>1.000000000000021</v>
+        <v>1</v>
       </c>
       <c r="D26">
-        <v>1.000000000000021</v>
+        <v>1</v>
       </c>
       <c r="E26">
-        <v>1.000000000000021</v>
+        <v>1</v>
       </c>
       <c r="F26">
-        <v>1.000000000000021</v>
+        <v>1</v>
       </c>
       <c r="G26">
-        <v>1.000000000000021</v>
+        <v>1</v>
       </c>
       <c r="H26">
-        <v>1.000000000000021</v>
+        <v>1</v>
       </c>
       <c r="I26">
-        <v>1.000000000000021</v>
+        <v>1</v>
       </c>
       <c r="J26">
-        <v>1.000000000000021</v>
+        <v>1</v>
       </c>
       <c r="K26">
-        <v>1.000000000000021</v>
+        <v>1</v>
       </c>
       <c r="L26">
-        <v>1.000000000000021</v>
+        <v>1</v>
       </c>
       <c r="M26">
-        <v>1.000000000000021</v>
+        <v>1</v>
       </c>
       <c r="N26">
-        <v>1.000000000000021</v>
+        <v>1</v>
       </c>
       <c r="O26">
-        <v>1.000000000000021</v>
+        <v>1</v>
       </c>
       <c r="P26">
-        <v>1.000000000000021</v>
+        <v>1</v>
       </c>
       <c r="Q26">
-        <v>1.000000000000021</v>
+        <v>1</v>
       </c>
       <c r="R26">
-        <v>1.000000000000021</v>
+        <v>1</v>
       </c>
       <c r="S26">
-        <v>1.000000000000021</v>
+        <v>1</v>
       </c>
       <c r="T26">
-        <v>1.000000000000021</v>
+        <v>1</v>
       </c>
       <c r="U26">
-        <v>1.000000000000021</v>
+        <v>1</v>
       </c>
       <c r="V26">
-        <v>1.000000000000021</v>
+        <v>1</v>
       </c>
     </row>
     <row r="27" spans="1:22">
@@ -2351,64 +2354,64 @@
         <v>25</v>
       </c>
       <c r="C27">
-        <v>1</v>
+        <v>1.000000000000021</v>
       </c>
       <c r="D27">
-        <v>1</v>
+        <v>1.000000000000021</v>
       </c>
       <c r="E27">
-        <v>1</v>
+        <v>1.000000000000021</v>
       </c>
       <c r="F27">
-        <v>1</v>
+        <v>1.000000000000021</v>
       </c>
       <c r="G27">
-        <v>1</v>
+        <v>1.000000000000021</v>
       </c>
       <c r="H27">
-        <v>1</v>
+        <v>1.000000000000021</v>
       </c>
       <c r="I27">
-        <v>1</v>
+        <v>1.000000000000021</v>
       </c>
       <c r="J27">
-        <v>1</v>
+        <v>1.000000000000021</v>
       </c>
       <c r="K27">
-        <v>1</v>
+        <v>1.000000000000021</v>
       </c>
       <c r="L27">
-        <v>1</v>
+        <v>1.000000000000021</v>
       </c>
       <c r="M27">
-        <v>1</v>
+        <v>1.000000000000021</v>
       </c>
       <c r="N27">
-        <v>1</v>
+        <v>1.000000000000021</v>
       </c>
       <c r="O27">
-        <v>1</v>
+        <v>1.000000000000021</v>
       </c>
       <c r="P27">
-        <v>1</v>
+        <v>1.000000000000021</v>
       </c>
       <c r="Q27">
-        <v>1</v>
+        <v>1.000000000000021</v>
       </c>
       <c r="R27">
-        <v>1</v>
+        <v>1.000000000000021</v>
       </c>
       <c r="S27">
-        <v>1</v>
+        <v>1.000000000000021</v>
       </c>
       <c r="T27">
-        <v>1</v>
+        <v>1.000000000000021</v>
       </c>
       <c r="U27">
-        <v>1</v>
+        <v>1.000000000000021</v>
       </c>
       <c r="V27">
-        <v>1</v>
+        <v>1.000000000000021</v>
       </c>
     </row>
     <row r="28" spans="1:22">
@@ -2555,64 +2558,64 @@
         <v>28</v>
       </c>
       <c r="C30">
-        <v>1.000000000000021</v>
+        <v>1</v>
       </c>
       <c r="D30">
-        <v>1.000000000000021</v>
+        <v>1</v>
       </c>
       <c r="E30">
-        <v>1.000000000000021</v>
+        <v>1</v>
       </c>
       <c r="F30">
-        <v>1.000000000000021</v>
+        <v>1</v>
       </c>
       <c r="G30">
-        <v>1.000000000000021</v>
+        <v>1</v>
       </c>
       <c r="H30">
-        <v>1.000000000000021</v>
+        <v>1</v>
       </c>
       <c r="I30">
-        <v>1.000000000000021</v>
+        <v>1</v>
       </c>
       <c r="J30">
-        <v>1.000000000000021</v>
+        <v>1</v>
       </c>
       <c r="K30">
-        <v>1.000000000000021</v>
+        <v>1</v>
       </c>
       <c r="L30">
-        <v>1.000000000000021</v>
+        <v>1</v>
       </c>
       <c r="M30">
-        <v>1.000000000000021</v>
+        <v>1</v>
       </c>
       <c r="N30">
-        <v>1.000000000000021</v>
+        <v>1</v>
       </c>
       <c r="O30">
-        <v>1.000000000000021</v>
+        <v>1</v>
       </c>
       <c r="P30">
-        <v>1.000000000000021</v>
+        <v>1</v>
       </c>
       <c r="Q30">
-        <v>1.000000000000021</v>
+        <v>1</v>
       </c>
       <c r="R30">
-        <v>1.000000000000021</v>
+        <v>1</v>
       </c>
       <c r="S30">
-        <v>1.000000000000021</v>
+        <v>1</v>
       </c>
       <c r="T30">
-        <v>1.000000000000021</v>
+        <v>1</v>
       </c>
       <c r="U30">
-        <v>1.000000000000021</v>
+        <v>1</v>
       </c>
       <c r="V30">
-        <v>1.000000000000021</v>
+        <v>1</v>
       </c>
     </row>
     <row r="31" spans="1:22">
@@ -2623,64 +2626,64 @@
         <v>29</v>
       </c>
       <c r="C31">
-        <v>1</v>
+        <v>1.000000000000021</v>
       </c>
       <c r="D31">
-        <v>1</v>
+        <v>1.000000000000021</v>
       </c>
       <c r="E31">
-        <v>1</v>
+        <v>1.000000000000021</v>
       </c>
       <c r="F31">
-        <v>1</v>
+        <v>1.000000000000021</v>
       </c>
       <c r="G31">
-        <v>1</v>
+        <v>1.000000000000021</v>
       </c>
       <c r="H31">
-        <v>1</v>
+        <v>1.000000000000021</v>
       </c>
       <c r="I31">
-        <v>1</v>
+        <v>1.000000000000021</v>
       </c>
       <c r="J31">
-        <v>1</v>
+        <v>1.000000000000021</v>
       </c>
       <c r="K31">
-        <v>1</v>
+        <v>1.000000000000021</v>
       </c>
       <c r="L31">
-        <v>1</v>
+        <v>1.000000000000021</v>
       </c>
       <c r="M31">
-        <v>1</v>
+        <v>1.000000000000021</v>
       </c>
       <c r="N31">
-        <v>1</v>
+        <v>1.000000000000021</v>
       </c>
       <c r="O31">
-        <v>1</v>
+        <v>1.000000000000021</v>
       </c>
       <c r="P31">
-        <v>1</v>
+        <v>1.000000000000021</v>
       </c>
       <c r="Q31">
-        <v>1</v>
+        <v>1.000000000000021</v>
       </c>
       <c r="R31">
-        <v>1</v>
+        <v>1.000000000000021</v>
       </c>
       <c r="S31">
-        <v>1</v>
+        <v>1.000000000000021</v>
       </c>
       <c r="T31">
-        <v>1</v>
+        <v>1.000000000000021</v>
       </c>
       <c r="U31">
-        <v>1</v>
+        <v>1.000000000000021</v>
       </c>
       <c r="V31">
-        <v>1</v>
+        <v>1.000000000000021</v>
       </c>
     </row>
     <row r="32" spans="1:22">
@@ -2827,64 +2830,64 @@
         <v>32</v>
       </c>
       <c r="C34">
-        <v>1.000000000000021</v>
+        <v>1</v>
       </c>
       <c r="D34">
-        <v>1.000000000000021</v>
+        <v>1</v>
       </c>
       <c r="E34">
-        <v>1.000000000000021</v>
+        <v>1</v>
       </c>
       <c r="F34">
-        <v>1.000000000000021</v>
+        <v>1</v>
       </c>
       <c r="G34">
-        <v>1.000000000000021</v>
+        <v>1</v>
       </c>
       <c r="H34">
-        <v>1.000000000000021</v>
+        <v>1</v>
       </c>
       <c r="I34">
-        <v>1.000000000000021</v>
+        <v>1</v>
       </c>
       <c r="J34">
-        <v>1.000000000000021</v>
+        <v>1</v>
       </c>
       <c r="K34">
-        <v>1.000000000000021</v>
+        <v>1</v>
       </c>
       <c r="L34">
-        <v>1.000000000000021</v>
+        <v>1</v>
       </c>
       <c r="M34">
-        <v>1.000000000000021</v>
+        <v>1</v>
       </c>
       <c r="N34">
-        <v>1.000000000000021</v>
+        <v>1</v>
       </c>
       <c r="O34">
-        <v>1.000000000000021</v>
+        <v>1</v>
       </c>
       <c r="P34">
-        <v>1.000000000000021</v>
+        <v>1</v>
       </c>
       <c r="Q34">
-        <v>1.000000000000021</v>
+        <v>1</v>
       </c>
       <c r="R34">
-        <v>1.000000000000021</v>
+        <v>1</v>
       </c>
       <c r="S34">
-        <v>1.000000000000021</v>
+        <v>1</v>
       </c>
       <c r="T34">
-        <v>1.000000000000021</v>
+        <v>1</v>
       </c>
       <c r="U34">
-        <v>1.000000000000021</v>
+        <v>1</v>
       </c>
       <c r="V34">
-        <v>1.000000000000021</v>
+        <v>1</v>
       </c>
     </row>
     <row r="35" spans="1:22">
@@ -2895,64 +2898,64 @@
         <v>33</v>
       </c>
       <c r="C35">
-        <v>1</v>
+        <v>1.000000000000021</v>
       </c>
       <c r="D35">
-        <v>1</v>
+        <v>1.000000000000021</v>
       </c>
       <c r="E35">
-        <v>1</v>
+        <v>1.000000000000021</v>
       </c>
       <c r="F35">
-        <v>1</v>
+        <v>1.000000000000021</v>
       </c>
       <c r="G35">
-        <v>1</v>
+        <v>1.000000000000021</v>
       </c>
       <c r="H35">
-        <v>1</v>
+        <v>1.000000000000021</v>
       </c>
       <c r="I35">
-        <v>1</v>
+        <v>1.000000000000021</v>
       </c>
       <c r="J35">
-        <v>1</v>
+        <v>1.000000000000021</v>
       </c>
       <c r="K35">
-        <v>1</v>
+        <v>1.000000000000021</v>
       </c>
       <c r="L35">
-        <v>1</v>
+        <v>1.000000000000021</v>
       </c>
       <c r="M35">
-        <v>1</v>
+        <v>1.000000000000021</v>
       </c>
       <c r="N35">
-        <v>1</v>
+        <v>1.000000000000021</v>
       </c>
       <c r="O35">
-        <v>1</v>
+        <v>1.000000000000021</v>
       </c>
       <c r="P35">
-        <v>1</v>
+        <v>1.000000000000021</v>
       </c>
       <c r="Q35">
-        <v>1</v>
+        <v>1.000000000000021</v>
       </c>
       <c r="R35">
-        <v>1</v>
+        <v>1.000000000000021</v>
       </c>
       <c r="S35">
-        <v>1</v>
+        <v>1.000000000000021</v>
       </c>
       <c r="T35">
-        <v>1</v>
+        <v>1.000000000000021</v>
       </c>
       <c r="U35">
-        <v>1</v>
+        <v>1.000000000000021</v>
       </c>
       <c r="V35">
-        <v>1</v>
+        <v>1.000000000000021</v>
       </c>
     </row>
     <row r="36" spans="1:22">
@@ -3099,64 +3102,64 @@
         <v>36</v>
       </c>
       <c r="C38">
-        <v>1.000000000000021</v>
+        <v>1</v>
       </c>
       <c r="D38">
-        <v>1.000000000000021</v>
+        <v>1</v>
       </c>
       <c r="E38">
-        <v>1.000000000000021</v>
+        <v>1</v>
       </c>
       <c r="F38">
-        <v>1.000000000000021</v>
+        <v>1</v>
       </c>
       <c r="G38">
-        <v>1.000000000000021</v>
+        <v>1</v>
       </c>
       <c r="H38">
-        <v>1.000000000000021</v>
+        <v>1</v>
       </c>
       <c r="I38">
-        <v>1.000000000000021</v>
+        <v>1</v>
       </c>
       <c r="J38">
-        <v>1.000000000000021</v>
+        <v>1</v>
       </c>
       <c r="K38">
-        <v>1.000000000000021</v>
+        <v>1</v>
       </c>
       <c r="L38">
-        <v>1.000000000000021</v>
+        <v>1</v>
       </c>
       <c r="M38">
-        <v>1.000000000000021</v>
+        <v>1</v>
       </c>
       <c r="N38">
-        <v>1.000000000000021</v>
+        <v>1</v>
       </c>
       <c r="O38">
-        <v>1.000000000000021</v>
+        <v>1</v>
       </c>
       <c r="P38">
-        <v>1.000000000000021</v>
+        <v>1</v>
       </c>
       <c r="Q38">
-        <v>1.000000000000021</v>
+        <v>1</v>
       </c>
       <c r="R38">
-        <v>1.000000000000021</v>
+        <v>1</v>
       </c>
       <c r="S38">
-        <v>1.000000000000021</v>
+        <v>1</v>
       </c>
       <c r="T38">
-        <v>1.000000000000021</v>
+        <v>1</v>
       </c>
       <c r="U38">
-        <v>1.000000000000021</v>
+        <v>1</v>
       </c>
       <c r="V38">
-        <v>1.000000000000021</v>
+        <v>1</v>
       </c>
     </row>
     <row r="39" spans="1:22">
@@ -3167,64 +3170,64 @@
         <v>37</v>
       </c>
       <c r="C39">
-        <v>1</v>
+        <v>1.000000000000021</v>
       </c>
       <c r="D39">
-        <v>1</v>
+        <v>1.000000000000021</v>
       </c>
       <c r="E39">
-        <v>1</v>
+        <v>1.000000000000021</v>
       </c>
       <c r="F39">
-        <v>1</v>
+        <v>1.000000000000021</v>
       </c>
       <c r="G39">
-        <v>1</v>
+        <v>1.000000000000021</v>
       </c>
       <c r="H39">
-        <v>1</v>
+        <v>1.000000000000021</v>
       </c>
       <c r="I39">
-        <v>1</v>
+        <v>1.000000000000021</v>
       </c>
       <c r="J39">
-        <v>1</v>
+        <v>1.000000000000021</v>
       </c>
       <c r="K39">
-        <v>1</v>
+        <v>1.000000000000021</v>
       </c>
       <c r="L39">
-        <v>1</v>
+        <v>1.000000000000021</v>
       </c>
       <c r="M39">
-        <v>1</v>
+        <v>1.000000000000021</v>
       </c>
       <c r="N39">
-        <v>1</v>
+        <v>1.000000000000021</v>
       </c>
       <c r="O39">
-        <v>1</v>
+        <v>1.000000000000021</v>
       </c>
       <c r="P39">
-        <v>1</v>
+        <v>1.000000000000021</v>
       </c>
       <c r="Q39">
-        <v>1</v>
+        <v>1.000000000000021</v>
       </c>
       <c r="R39">
-        <v>1</v>
+        <v>1.000000000000021</v>
       </c>
       <c r="S39">
-        <v>1</v>
+        <v>1.000000000000021</v>
       </c>
       <c r="T39">
-        <v>1</v>
+        <v>1.000000000000021</v>
       </c>
       <c r="U39">
-        <v>1</v>
+        <v>1.000000000000021</v>
       </c>
       <c r="V39">
-        <v>1</v>
+        <v>1.000000000000021</v>
       </c>
     </row>
     <row r="40" spans="1:22">
@@ -3371,64 +3374,64 @@
         <v>40</v>
       </c>
       <c r="C42">
-        <v>1.000000000000021</v>
+        <v>1</v>
       </c>
       <c r="D42">
-        <v>1.000000000000021</v>
+        <v>1</v>
       </c>
       <c r="E42">
-        <v>1.000000000000021</v>
+        <v>1</v>
       </c>
       <c r="F42">
-        <v>1.000000000000021</v>
+        <v>1</v>
       </c>
       <c r="G42">
-        <v>1.000000000000021</v>
+        <v>1</v>
       </c>
       <c r="H42">
-        <v>1.000000000000021</v>
+        <v>1</v>
       </c>
       <c r="I42">
-        <v>1.000000000000021</v>
+        <v>1</v>
       </c>
       <c r="J42">
-        <v>1.000000000000021</v>
+        <v>1</v>
       </c>
       <c r="K42">
-        <v>1.000000000000021</v>
+        <v>1</v>
       </c>
       <c r="L42">
-        <v>1.000000000000021</v>
+        <v>1</v>
       </c>
       <c r="M42">
-        <v>1.000000000000021</v>
+        <v>1</v>
       </c>
       <c r="N42">
-        <v>1.000000000000021</v>
+        <v>1</v>
       </c>
       <c r="O42">
-        <v>1.000000000000021</v>
+        <v>1</v>
       </c>
       <c r="P42">
-        <v>1.000000000000021</v>
+        <v>1</v>
       </c>
       <c r="Q42">
-        <v>1.000000000000021</v>
+        <v>1</v>
       </c>
       <c r="R42">
-        <v>1.000000000000021</v>
+        <v>1</v>
       </c>
       <c r="S42">
-        <v>1.000000000000021</v>
+        <v>1</v>
       </c>
       <c r="T42">
-        <v>1.000000000000021</v>
+        <v>1</v>
       </c>
       <c r="U42">
-        <v>1.000000000000021</v>
+        <v>1</v>
       </c>
       <c r="V42">
-        <v>1.000000000000021</v>
+        <v>1</v>
       </c>
     </row>
     <row r="43" spans="1:22">
@@ -3439,64 +3442,64 @@
         <v>41</v>
       </c>
       <c r="C43">
-        <v>1</v>
+        <v>1.000000000000021</v>
       </c>
       <c r="D43">
-        <v>1</v>
+        <v>1.000000000000021</v>
       </c>
       <c r="E43">
-        <v>1</v>
+        <v>1.000000000000021</v>
       </c>
       <c r="F43">
-        <v>1</v>
+        <v>1.000000000000021</v>
       </c>
       <c r="G43">
-        <v>1</v>
+        <v>1.000000000000021</v>
       </c>
       <c r="H43">
-        <v>1</v>
+        <v>1.000000000000021</v>
       </c>
       <c r="I43">
-        <v>1</v>
+        <v>1.000000000000021</v>
       </c>
       <c r="J43">
-        <v>1</v>
+        <v>1.000000000000021</v>
       </c>
       <c r="K43">
-        <v>1</v>
+        <v>1.000000000000021</v>
       </c>
       <c r="L43">
-        <v>1</v>
+        <v>1.000000000000021</v>
       </c>
       <c r="M43">
-        <v>1</v>
+        <v>1.000000000000021</v>
       </c>
       <c r="N43">
-        <v>1</v>
+        <v>1.000000000000021</v>
       </c>
       <c r="O43">
-        <v>1</v>
+        <v>1.000000000000021</v>
       </c>
       <c r="P43">
-        <v>1</v>
+        <v>1.000000000000021</v>
       </c>
       <c r="Q43">
-        <v>1</v>
+        <v>1.000000000000021</v>
       </c>
       <c r="R43">
-        <v>1</v>
+        <v>1.000000000000021</v>
       </c>
       <c r="S43">
-        <v>1</v>
+        <v>1.000000000000021</v>
       </c>
       <c r="T43">
-        <v>1</v>
+        <v>1.000000000000021</v>
       </c>
       <c r="U43">
-        <v>1</v>
+        <v>1.000000000000021</v>
       </c>
       <c r="V43">
-        <v>1</v>
+        <v>1.000000000000021</v>
       </c>
     </row>
     <row r="44" spans="1:22">
@@ -3643,64 +3646,64 @@
         <v>44</v>
       </c>
       <c r="C46">
-        <v>1.000000000000021</v>
+        <v>1</v>
       </c>
       <c r="D46">
-        <v>1.000000000000021</v>
+        <v>1</v>
       </c>
       <c r="E46">
-        <v>1.000000000000021</v>
+        <v>1</v>
       </c>
       <c r="F46">
-        <v>1.000000000000021</v>
+        <v>1</v>
       </c>
       <c r="G46">
-        <v>1.000000000000021</v>
+        <v>1</v>
       </c>
       <c r="H46">
-        <v>1.000000000000021</v>
+        <v>1</v>
       </c>
       <c r="I46">
-        <v>1.000000000000021</v>
+        <v>1</v>
       </c>
       <c r="J46">
-        <v>1.000000000000021</v>
+        <v>1</v>
       </c>
       <c r="K46">
-        <v>1.000000000000021</v>
+        <v>1</v>
       </c>
       <c r="L46">
-        <v>1.000000000000021</v>
+        <v>1</v>
       </c>
       <c r="M46">
-        <v>1.000000000000021</v>
+        <v>1</v>
       </c>
       <c r="N46">
-        <v>1.000000000000021</v>
+        <v>1</v>
       </c>
       <c r="O46">
-        <v>1.000000000000021</v>
+        <v>1</v>
       </c>
       <c r="P46">
-        <v>1.000000000000021</v>
+        <v>1</v>
       </c>
       <c r="Q46">
-        <v>1.000000000000021</v>
+        <v>1</v>
       </c>
       <c r="R46">
-        <v>1.000000000000021</v>
+        <v>1</v>
       </c>
       <c r="S46">
-        <v>1.000000000000021</v>
+        <v>1</v>
       </c>
       <c r="T46">
-        <v>1.000000000000021</v>
+        <v>1</v>
       </c>
       <c r="U46">
-        <v>1.000000000000021</v>
+        <v>1</v>
       </c>
       <c r="V46">
-        <v>1.000000000000021</v>
+        <v>1</v>
       </c>
     </row>
     <row r="47" spans="1:22">
@@ -3711,64 +3714,64 @@
         <v>45</v>
       </c>
       <c r="C47">
-        <v>1</v>
+        <v>1.000000000000021</v>
       </c>
       <c r="D47">
-        <v>1</v>
+        <v>1.000000000000021</v>
       </c>
       <c r="E47">
-        <v>1</v>
+        <v>1.000000000000021</v>
       </c>
       <c r="F47">
-        <v>1</v>
+        <v>1.000000000000021</v>
       </c>
       <c r="G47">
-        <v>1</v>
+        <v>1.000000000000021</v>
       </c>
       <c r="H47">
-        <v>1</v>
+        <v>1.000000000000021</v>
       </c>
       <c r="I47">
-        <v>1</v>
+        <v>1.000000000000021</v>
       </c>
       <c r="J47">
-        <v>1</v>
+        <v>1.000000000000021</v>
       </c>
       <c r="K47">
-        <v>1</v>
+        <v>1.000000000000021</v>
       </c>
       <c r="L47">
-        <v>1</v>
+        <v>1.000000000000021</v>
       </c>
       <c r="M47">
-        <v>1</v>
+        <v>1.000000000000021</v>
       </c>
       <c r="N47">
-        <v>1</v>
+        <v>1.000000000000021</v>
       </c>
       <c r="O47">
-        <v>1</v>
+        <v>1.000000000000021</v>
       </c>
       <c r="P47">
-        <v>1</v>
+        <v>1.000000000000021</v>
       </c>
       <c r="Q47">
-        <v>1</v>
+        <v>1.000000000000021</v>
       </c>
       <c r="R47">
-        <v>1</v>
+        <v>1.000000000000021</v>
       </c>
       <c r="S47">
-        <v>1</v>
+        <v>1.000000000000021</v>
       </c>
       <c r="T47">
-        <v>1</v>
+        <v>1.000000000000021</v>
       </c>
       <c r="U47">
-        <v>1</v>
+        <v>1.000000000000021</v>
       </c>
       <c r="V47">
-        <v>1</v>
+        <v>1.000000000000021</v>
       </c>
     </row>
     <row r="48" spans="1:22">
@@ -3836,6 +3839,74 @@
         <v>1</v>
       </c>
       <c r="V48">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49" spans="1:22">
+      <c r="A49" s="1">
+        <v>47</v>
+      </c>
+      <c r="B49" t="s">
+        <v>47</v>
+      </c>
+      <c r="C49">
+        <v>1</v>
+      </c>
+      <c r="D49">
+        <v>1</v>
+      </c>
+      <c r="E49">
+        <v>1</v>
+      </c>
+      <c r="F49">
+        <v>1</v>
+      </c>
+      <c r="G49">
+        <v>1</v>
+      </c>
+      <c r="H49">
+        <v>1</v>
+      </c>
+      <c r="I49">
+        <v>1</v>
+      </c>
+      <c r="J49">
+        <v>1</v>
+      </c>
+      <c r="K49">
+        <v>1</v>
+      </c>
+      <c r="L49">
+        <v>1</v>
+      </c>
+      <c r="M49">
+        <v>1</v>
+      </c>
+      <c r="N49">
+        <v>1</v>
+      </c>
+      <c r="O49">
+        <v>1</v>
+      </c>
+      <c r="P49">
+        <v>1</v>
+      </c>
+      <c r="Q49">
+        <v>1</v>
+      </c>
+      <c r="R49">
+        <v>1</v>
+      </c>
+      <c r="S49">
+        <v>1</v>
+      </c>
+      <c r="T49">
+        <v>1</v>
+      </c>
+      <c r="U49">
+        <v>1</v>
+      </c>
+      <c r="V49">
         <v>1</v>
       </c>
     </row>
